--- a/Progression.xlsx
+++ b/Progression.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977903C1-F19B-4C78-9113-8C75F9FB82FA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4092" windowHeight="2352" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4092" windowHeight="2352" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Range Progress" sheetId="1" r:id="rId1"/>
     <sheet name="Gear stats" sheetId="2" r:id="rId2"/>
     <sheet name="Optimization" sheetId="3" r:id="rId3"/>
+    <sheet name="Droplets" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +224,18 @@
   </si>
   <si>
     <t>Average With Glove</t>
+  </si>
+  <si>
+    <t>Lucky Winter</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Symbols</t>
+  </si>
+  <si>
+    <t>Droplets</t>
   </si>
 </sst>
 </file>
@@ -279,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +326,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -336,16 +355,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -361,13 +396,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="6" builtinId="10"/>
     <cellStyle name="Style 1" xfId="5" xr:uid="{02BCEC12-00C3-4DFE-A62B-4D093B6CA43E}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1121,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86349F9-239B-44E5-A1BF-48FDAEE9C262}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -2286,27 +2323,27 @@
         <v>24.333333333333332</v>
       </c>
       <c r="K23">
-        <f>AVERAGE(K2:K16,K18:K20)</f>
+        <f t="shared" ref="K23:P23" si="3">AVERAGE(K2:K16,K18:K20)</f>
         <v>24.5</v>
       </c>
       <c r="L23">
-        <f>AVERAGE(L2:L16,L18:L20)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M23">
-        <f>AVERAGE(M2:M16,M18:M20)</f>
+        <f t="shared" si="3"/>
         <v>25.333333333333332</v>
       </c>
       <c r="N23">
-        <f>AVERAGE(N2:N16,N18:N20)</f>
+        <f t="shared" si="3"/>
         <v>25.833333333333332</v>
       </c>
       <c r="O23">
-        <f>AVERAGE(O2:O16,O18:O20)</f>
+        <f t="shared" si="3"/>
         <v>25.833333333333332</v>
       </c>
       <c r="P23">
-        <f>AVERAGE(P2:P16,P18:P20)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
@@ -2319,43 +2356,43 @@
         <v>20.105263157894736</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:J24" si="3">AVERAGE(C2:C20)</f>
+        <f t="shared" ref="C24:J24" si="4">AVERAGE(C2:C20)</f>
         <v>20.894736842105264</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.157894736842106</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.315789473684209</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.315789473684209</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.315789473684209</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.157894736842106</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.578947368421051</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:L24" si="4">AVERAGE(K2:K20)</f>
+        <f t="shared" ref="K24:L24" si="5">AVERAGE(K2:K20)</f>
         <v>23.736842105263158</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.210526315789473</v>
       </c>
       <c r="M24">
@@ -2685,4 +2722,345 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5BB5EE-576F-43C9-88C6-6BBD3631BE3A}">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="12.21875" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Progression.xlsx
+++ b/Progression.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977903C1-F19B-4C78-9113-8C75F9FB82FA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB382A66-AF70-4175-8149-AA066B381DE7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4092" windowHeight="2352" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9630" windowHeight="2640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Range Progress" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Average With Glove</t>
+  </si>
+  <si>
+    <t>Stat - AF</t>
   </si>
   <si>
     <t>Lucky Winter</t>
@@ -683,18 +686,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,8 +719,11 @@
       <c r="G1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43049</v>
       </c>
@@ -731,7 +737,7 @@
         <v>15377</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43052</v>
       </c>
@@ -745,7 +751,7 @@
         <v>16515</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43056</v>
       </c>
@@ -767,7 +773,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43056</v>
       </c>
@@ -789,7 +795,7 @@
         <v>22.333333333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43057</v>
       </c>
@@ -810,7 +816,7 @@
         <v>22.333333333333332</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43058</v>
       </c>
@@ -831,7 +837,7 @@
         <v>22.333333333333332</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43061</v>
       </c>
@@ -852,7 +858,7 @@
         <v>22.333333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43062</v>
       </c>
@@ -873,7 +879,7 @@
         <v>22.333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43063</v>
       </c>
@@ -894,7 +900,7 @@
         <v>21.421052631578949</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43091</v>
       </c>
@@ -915,7 +921,7 @@
         <v>21.578947368421051</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43094</v>
       </c>
@@ -936,7 +942,7 @@
         <v>21.684210526315791</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43111</v>
       </c>
@@ -957,7 +963,7 @@
         <v>21.631578947368421</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43127</v>
       </c>
@@ -980,8 +986,12 @@
       <c r="G14">
         <v>650</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f>D14-G14*10</f>
+        <v>15257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43129</v>
       </c>
@@ -1004,8 +1014,12 @@
       <c r="G15">
         <v>660</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" ref="H15:H22" si="2">D15-G15*10</f>
+        <v>15173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43135</v>
       </c>
@@ -1028,8 +1042,12 @@
       <c r="G16">
         <v>670</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>16616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43139</v>
       </c>
@@ -1052,8 +1070,12 @@
       <c r="G17">
         <v>680</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>16633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43148</v>
       </c>
@@ -1076,8 +1098,12 @@
       <c r="G18">
         <v>700</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>17026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43149</v>
       </c>
@@ -1100,8 +1126,12 @@
       <c r="G19">
         <v>700</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>17274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43155</v>
       </c>
@@ -1124,8 +1154,12 @@
       <c r="G20">
         <v>700</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>17590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43158</v>
       </c>
@@ -1147,6 +1181,38 @@
       </c>
       <c r="G21">
         <v>700</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>17766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43176</v>
+      </c>
+      <c r="B22">
+        <v>7746033</v>
+      </c>
+      <c r="C22">
+        <v>8606702</v>
+      </c>
+      <c r="D22">
+        <v>26749</v>
+      </c>
+      <c r="E22">
+        <v>536</v>
+      </c>
+      <c r="F22">
+        <f>E22/19</f>
+        <v>28.210526315789473</v>
+      </c>
+      <c r="G22">
+        <v>760</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>19149</v>
       </c>
     </row>
   </sheetData>
@@ -1158,16 +1224,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86349F9-239B-44E5-A1BF-48FDAEE9C262}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1283,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1263,11 +1329,11 @@
       <c r="O2" s="4">
         <v>27</v>
       </c>
-      <c r="P2" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P2" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1363,11 +1429,11 @@
       <c r="O4" s="5">
         <v>21</v>
       </c>
-      <c r="P4" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P4" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1413,11 +1479,11 @@
       <c r="O5" s="6">
         <v>24</v>
       </c>
-      <c r="P5" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P5" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1463,11 +1529,11 @@
       <c r="O6" s="6">
         <v>24</v>
       </c>
-      <c r="P6" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P6" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1513,11 +1579,11 @@
       <c r="O7" s="6">
         <v>24</v>
       </c>
-      <c r="P7" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P7" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1567,7 +1633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1663,11 +1729,11 @@
       <c r="O10" s="6">
         <v>27</v>
       </c>
-      <c r="P10" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P10" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1717,7 +1783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1763,11 +1829,11 @@
       <c r="O12" s="5">
         <v>21</v>
       </c>
-      <c r="P12" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P12" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1817,7 +1883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1867,7 +1933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1913,11 +1979,11 @@
       <c r="O15" s="6">
         <v>24</v>
       </c>
-      <c r="P15" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P15" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1967,7 +2033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2017,7 +2083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2067,7 +2133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2113,11 +2179,11 @@
       <c r="O19" s="5">
         <v>21</v>
       </c>
-      <c r="P19" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P19" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2167,7 +2233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2214,10 +2280,10 @@
         <v>14</v>
       </c>
       <c r="P21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2279,10 +2345,10 @@
       </c>
       <c r="P22">
         <f>SUM(P2:P21)</f>
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2344,10 +2410,10 @@
       </c>
       <c r="P23">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2409,7 +2475,7 @@
       </c>
       <c r="P24">
         <f>AVERAGE(P2:P20)</f>
-        <v>25.157894736842106</v>
+        <v>27.526315789473685</v>
       </c>
     </row>
   </sheetData>
@@ -2426,12 +2492,12 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -2448,7 +2514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2465,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2482,12 +2548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2510,7 +2576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2531,7 +2597,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2555,7 +2621,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>44</v>
       </c>
@@ -2565,7 +2631,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>42</v>
@@ -2575,7 +2641,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2586,7 +2652,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2597,7 +2663,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2608,7 +2674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2619,98 +2685,98 @@
         <v>94.61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -2725,33 +2791,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5BB5EE-576F-43C9-88C6-6BBD3631BE3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D3219E-D0A5-4CB2-81C9-6F69824A2A48}">
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.21875" style="11" customWidth="1"/>
+    <col min="1" max="4" width="12.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2765,297 +2831,306 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>59</v>
       </c>
